--- a/storage/app/public/battles.xlsx
+++ b/storage/app/public/battles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marc/Entwicklung/Projekte/PromptDeck/storage/app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C14ED6E-936D-A642-985B-CC396C8534F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0976110-AE88-4742-938A-7D39D5F1CD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -40,22 +40,22 @@
     <t>finished_at</t>
   </si>
   <si>
+    <t>A cute little elephant made from spaghetti</t>
+  </si>
+  <si>
+    <t>Actor A</t>
+  </si>
+  <si>
+    <t>Actor B</t>
+  </si>
+  <si>
+    <t>Prompt example 2</t>
+  </si>
+  <si>
     <t>Actor C</t>
   </si>
   <si>
     <t>Actor D</t>
-  </si>
-  <si>
-    <t>Actor A</t>
-  </si>
-  <si>
-    <t>Actor B</t>
-  </si>
-  <si>
-    <t>Prompt example 2</t>
-  </si>
-  <si>
-    <t>A cute little elephant made from spaghetti</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -525,13 +525,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="7"/>
     </row>
@@ -543,13 +543,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F3" s="5"/>
     </row>

--- a/storage/app/public/battles.xlsx
+++ b/storage/app/public/battles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marc/Entwicklung/Projekte/PromptDeck/storage/app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0976110-AE88-4742-938A-7D39D5F1CD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F809693-18B3-E240-AAC5-6B6D2C04823B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
